--- a/BDD-Pays V2.xlsx
+++ b/BDD-Pays V2.xlsx
@@ -5,20 +5,21 @@
   <workbookPr updateLinks="never"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d178078907aecc43/Documents/Coursera/Mazars/excel-to-json/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adnan\OneDrive\Documents\Coursera\Mazars\excel-to-json\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_94C0E6FDB83F0289A9D9DB9ACC096E6E75E87A94" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98A2B7F2-3F50-4196-8245-030C42405D6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E2D5A-34EF-405B-9ED0-762ED7B69AEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrice-Pays" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Matrice-Pays'!$A$1:$AW$127</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1105">
   <si>
     <t>Continent</t>
   </si>
@@ -3575,19 +3576,32 @@
   <si>
     <t>Égypte</t>
   </si>
+  <si>
+    <t>PDM 2019</t>
+  </si>
+  <si>
+    <t>TCAM 2012-2019</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _D_H_-;\-* #,##0.00\ _D_H_-;_-* &quot;-&quot;??\ _D_H_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _D_H_-;\-* #,##0\ _D_H_-;_-* &quot;-&quot;??\ _D_H_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0\ _D_H_-;\-* #,##0.0\ _D_H_-;_-* &quot;-&quot;??\ _D_H_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3628,6 +3642,14 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3730,13 +3752,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3900,11 +3923,27 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{76B8269D-D912-41F6-AB4D-D0D5A918D9F4}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -18725,8 +18764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="102" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
@@ -47481,4 +47520,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5A2F9-D8CA-43D2-9C57-C13A3C571520}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="55">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B2" s="58">
+        <v>5477463</v>
+      </c>
+      <c r="C2" s="59">
+        <v>0.17302735635473518</v>
+      </c>
+      <c r="D2" s="59">
+        <v>4.9502234540250933E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>545</v>
+      </c>
+      <c r="B3" s="58">
+        <v>2583267</v>
+      </c>
+      <c r="C3" s="59">
+        <v>8.1602716397797245E-2</v>
+      </c>
+      <c r="D3" s="59">
+        <v>5.1356171656158356E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>815</v>
+      </c>
+      <c r="B4" s="58">
+        <v>2413935</v>
+      </c>
+      <c r="C4" s="59">
+        <v>7.6253694723664528E-2</v>
+      </c>
+      <c r="D4" s="59">
+        <v>3.0329909621658491E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B5" s="58">
+        <v>2135087</v>
+      </c>
+      <c r="C5" s="59">
+        <v>6.744517657122695E-2</v>
+      </c>
+      <c r="D5" s="59">
+        <v>7.5793257710325967E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="58">
+        <v>1756554</v>
+      </c>
+      <c r="C6" s="59">
+        <v>5.5487713000404656E-2</v>
+      </c>
+      <c r="D6" s="59">
+        <v>2.7783090065346405E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="58">
+        <v>1747549</v>
+      </c>
+      <c r="C7" s="59">
+        <v>5.5203254420953841E-2</v>
+      </c>
+      <c r="D7" s="59">
+        <v>1.4295598850530666E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>823</v>
+      </c>
+      <c r="B8" s="58">
+        <v>1012436</v>
+      </c>
+      <c r="C8" s="59">
+        <v>3.1981799705148653E-2</v>
+      </c>
+      <c r="D8" s="59">
+        <v>3.5827716359964956E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>799</v>
+      </c>
+      <c r="B9" s="58">
+        <v>712812</v>
+      </c>
+      <c r="C9" s="59">
+        <v>2.2516989332092518E-2</v>
+      </c>
+      <c r="D9" s="59">
+        <v>6.7717123070546004E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>806</v>
+      </c>
+      <c r="B10" s="58">
+        <v>683799</v>
+      </c>
+      <c r="C10" s="59">
+        <v>2.1600498852846938E-2</v>
+      </c>
+      <c r="D10" s="59">
+        <v>3.2593060913397309E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B11" s="58">
+        <v>649922</v>
+      </c>
+      <c r="C11" s="59">
+        <v>2.0530359675050694E-2</v>
+      </c>
+      <c r="D11" s="59">
+        <v>3.6666241101365404E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>